--- a/biology/Botanique/Apiales/Apiales.xlsx
+++ b/biology/Botanique/Apiales/Apiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Apiales sont un ordre de plantes dicotylédones.
-En classification classique de Cronquist (1981)[1] il comprend deux familles :
+En classification classique de Cronquist (1981) il comprend deux familles :
 Apiacées ou Ombellifères (famille de la carotte).
 Araliacées (famille du ginseng et du lierre).
-En classification phylogénétique APG (1998)[2] la circonscription était:
+En classification phylogénétique APG (1998) la circonscription était:
 ordre Apiales
 : famille Apiaceae
 : famille Araliaceae
@@ -495,7 +507,7 @@
 : famille Melanophyllaceae
 : famille Pittosporaceae
 : famille Torricelliaceae
-En classification phylogénétique APG II (2003)[3] la circonscription était:
+En classification phylogénétique APG II (2003) la circonscription était:
 ordre Apiales
 : famille Apiaceae
 : famille Araliaceae
@@ -516,7 +528,7 @@
 : famille Pennantiaceae
 : famille Pittosporaceae
 : famille Torricelliaceae
-En classification phylogénétique APG III (2009)[4] la circonscription est:
+En classification phylogénétique APG III (2009) la circonscription est:
 ordre Apiales Nakai (1930)
 : famille Apiaceae Lindl. (1836)  (incluant Mackinlayaceae Doweld)
 : famille Araliaceae Juss. (1789)
